--- a/generators/piano/assets/devices/characters.xlsx
+++ b/generators/piano/assets/devices/characters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sentiMation\generators\piano\assets\devices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DA8483-DC3F-476F-985C-F74EC1A4058D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D848E61-C67C-42A1-B726-6D44A38558E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="18720" windowHeight="11400" xr2:uid="{254CA10A-394A-4A82-BBBB-A620ACEECAB2}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="10980" xr2:uid="{254CA10A-394A-4A82-BBBB-A620ACEECAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,18 +50,12 @@
     <t>Activator</t>
   </si>
   <si>
-    <t>&lt;lora:YujiroHanma5:1&gt;</t>
-  </si>
-  <si>
     <t>YUJIROHANMA</t>
   </si>
   <si>
     <t>Naruto Uzumaki</t>
   </si>
   <si>
-    <t>&lt;lora:naruto uzumaki-lora-nochekaiser:1&gt;</t>
-  </si>
-  <si>
     <t>UZUMAKI NARUTO</t>
   </si>
   <si>
@@ -80,30 +74,15 @@
     <t>Luffy</t>
   </si>
   <si>
-    <t>&lt;lora:Luffy_v2:1&gt;</t>
-  </si>
-  <si>
     <t>LUFFY</t>
   </si>
   <si>
     <t>One Piece</t>
   </si>
   <si>
-    <t>Reigan Arataka</t>
-  </si>
-  <si>
-    <t>&lt;lora:Reigen:1&gt;</t>
-  </si>
-  <si>
-    <t>reiganarataka</t>
-  </si>
-  <si>
     <t>Saitama</t>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;lora:Saitama:1&gt;</t>
-  </si>
-  <si>
     <t>onepunchman</t>
   </si>
   <si>
@@ -116,10 +95,31 @@
     <t>Vegeta</t>
   </si>
   <si>
-    <t>&lt;lora:dbz_vegeta:1&gt;</t>
-  </si>
-  <si>
     <t>VEGETA</t>
+  </si>
+  <si>
+    <t>&lt;lora:Reigen:0.7&gt;</t>
+  </si>
+  <si>
+    <t>&lt;lora:naruto uzumaki-lora-nochekaiser:0.7&gt;</t>
+  </si>
+  <si>
+    <t>&lt;lora:YujiroHanma5:0.8&gt;</t>
+  </si>
+  <si>
+    <t>&lt;lora:dbz_vegeta:0.7&gt;</t>
+  </si>
+  <si>
+    <t>&lt;lora:Saitama:0.7&gt;</t>
+  </si>
+  <si>
+    <t>Reigen Arataka</t>
+  </si>
+  <si>
+    <t>REIGENARATAKA</t>
+  </si>
+  <si>
+    <t>&lt;lora:Luffy_v2:0.3&gt;</t>
   </si>
 </sst>
 </file>
@@ -500,19 +500,19 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="38.453125" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
-    <col min="7" max="7" width="28.36328125" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,91 +523,91 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
